--- a/docs/Dastruct - 2022-07-18.xlsx
+++ b/docs/Dastruct - 2022-07-18.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everett/Codes/Projects/Work/Workforce/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE92245-6439-7D4F-B992-A36B98C91880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817EDBD-322C-E649-BBCC-03CADE69DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{208C766E-858D-E64E-9905-BF5B2B6B0DAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Authentication" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +34,105 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Check if user exists, and password is valid</t>
+  </si>
+  <si>
+    <t>for the user in question</t>
+  </si>
+  <si>
+    <t>tb_sys_mf_user</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>meta laravel…..</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>- What if user has multiple devices or user</t>
+  </si>
+  <si>
+    <t>logs on to the website or other devices</t>
+  </si>
+  <si>
+    <t>- How to define expiration of token</t>
+  </si>
+  <si>
+    <t>Token will become invalid upon the following cases:</t>
+  </si>
+  <si>
+    <t>- Token has expired after X no. of days</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>token expiration date</t>
+  </si>
+  <si>
+    <t>- User changes password</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,12 +154,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +194,441 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1D0ADC-0CF2-3110-1BCB-1E8E683AD3ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="1422400"/>
+          <a:ext cx="1270000" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Login via App using User Code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> and Password</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B233EA7-8106-9C4D-BC11-BDD7B59F81AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="1231900"/>
+          <a:ext cx="1270000" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Check if credentials is valid</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727DA9F5-B0A2-0D49-86BC-1051AA9B6F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2654300"/>
+          <a:ext cx="1270000" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Generate token</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74981587-F966-B0C5-1F11-C363EC6D641C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711700" y="2247900"/>
+          <a:ext cx="0" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497378EA-31FC-4D49-8442-16742D9240E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2044700" y="1727200"/>
+          <a:ext cx="2032000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CE89F0-E18F-D147-9728-190349904559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="2654300"/>
+          <a:ext cx="1270000" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Save</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> token locally</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B31C5B1-6559-CE45-A578-FA7FBE128F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2044700" y="3162300"/>
+          <a:ext cx="2032000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +928,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23E5E3-6637-B241-A3A6-FB16A95A50A2}">
-  <dimension ref="A1"/>
+  <dimension ref="D4:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AL4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AL6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AM10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AM11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AY13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="W14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W18" s="4"/>
+    </row>
+    <row r="20" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W21" s="7"/>
+      <c r="X21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="7"/>
+      <c r="X22" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Q5:U5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Dastruct - 2022-07-18.xlsx
+++ b/docs/Dastruct - 2022-07-18.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everett/Codes/Projects/Work/Workforce/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817EDBD-322C-E649-BBCC-03CADE69DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14283E0-2318-E141-B365-F1BF54EB6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{208C766E-858D-E64E-9905-BF5B2B6B0DAC}"/>
+    <workbookView xWindow="400" yWindow="2480" windowWidth="30420" windowHeight="17680" activeTab="2" xr2:uid="{208C766E-858D-E64E-9905-BF5B2B6B0DAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Authentication" sheetId="1" r:id="rId1"/>
+    <sheet name="Infrastructure" sheetId="3" r:id="rId1"/>
+    <sheet name="Authentication" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Configuration" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>App</t>
   </si>
@@ -93,12 +96,45 @@
   <si>
     <t>- User changes password</t>
   </si>
+  <si>
+    <t>GPS data will saved to file, organized by folder</t>
+  </si>
+  <si>
+    <t>Public API to access and modify data</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Client / User</t>
+  </si>
+  <si>
+    <t>WF Server</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Coverage Plan / Report</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Announcements</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Master files</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +173,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +223,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +245,1808 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDD48DD-D5CC-E554-8053-AD83C42AB0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="2032000"/>
+          <a:ext cx="1409700" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GPS Server 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDC9766-EE15-034F-ABF5-3B68B880E815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="2032000"/>
+          <a:ext cx="1409700" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User / Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FA904A-FF12-5A4C-8919-BFFF0C7C4396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3911600" y="2032000"/>
+          <a:ext cx="1409700" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>workforce100.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EC5207-D6E4-E7B5-93E5-EAE01A6B70B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="2451100"/>
+          <a:ext cx="1092200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1D60B2-4450-914A-A902-F4FE1A0F8F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="2451100"/>
+          <a:ext cx="1117600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3F9892-8D76-7444-974E-C246877345A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="2044700"/>
+          <a:ext cx="1409700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HDD 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE9E44A-56C3-8A47-A8BE-5EDAD65601A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="2476500"/>
+          <a:ext cx="1409700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HDD 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654F32D6-0AEA-C249-DA7E-5B6DAC9A1FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7823200" y="2241550"/>
+          <a:ext cx="1130300" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E21554-321E-A74D-B607-3515E118900C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7970345" y="2541752"/>
+          <a:ext cx="1164021" cy="1046436"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4181F6EF-0C7B-564C-B005-501D1BF49238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8966200" y="3276600"/>
+          <a:ext cx="1409700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HDD (n)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B67A70-3A21-AA4C-B262-E5E707F5DD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7970345" y="2541752"/>
+          <a:ext cx="1151321" cy="227067"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>28904</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260DC1A0-7EA2-B442-8E17-9FC7CAAA9C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9119914" y="4188811"/>
+          <a:ext cx="1441231" cy="409465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Managed MySQL </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>21021</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>202762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38977</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>196192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847390BC-C2D6-E249-9246-A84C8965ACD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9129987" y="4811986"/>
+          <a:ext cx="1441231" cy="409465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Managed MySQL </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9197</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>27153</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>206265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A26B2BC-CD4E-424A-BF11-F9160059C83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9118163" y="5446110"/>
+          <a:ext cx="1441231" cy="409465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Managed MySQL </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>273706</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7006</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB71453C-1A9B-9D4A-822E-9766D10D29F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6536120" y="4188811"/>
+          <a:ext cx="1441231" cy="857469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DB Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7006</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9197</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5731A14-05C7-C345-BDD3-A3E6B1022764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977351" y="4617546"/>
+          <a:ext cx="1140812" cy="1033297"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7006</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7B3CBB-39BA-B541-AE01-D4ABE5CE0265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7977351" y="4393544"/>
+          <a:ext cx="1142563" cy="224002"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7006</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>21021</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>199478</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2052CA-4FBA-AA4E-8DE7-8AEA6FD89AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977351" y="4617546"/>
+          <a:ext cx="1152636" cy="399173"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>273706</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Elbow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5055CD70-F1AB-20D0-74F3-41A15862DB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421148" y="2541752"/>
+          <a:ext cx="1114972" cy="2075794"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>283779</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17079</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9075FB39-E35A-9E4D-B998-C21CA5749972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6546193" y="6498021"/>
+          <a:ext cx="1441231" cy="857469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Website</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Portal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(Laravel)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>283779</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Elbow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC6E898-9E04-164F-B26B-A4F098E84870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421148" y="2541752"/>
+          <a:ext cx="1125045" cy="4385004"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140357</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150430</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8C8D20-06BA-C343-B77A-59D46A754496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="0"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7256736" y="5046280"/>
+          <a:ext cx="10073" cy="1451741"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10071</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>16643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28026</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CF4A72-98F3-904F-B662-7CC28104DA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6557140" y="8162160"/>
+          <a:ext cx="1441231" cy="857469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Server</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>282466</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>10510</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>203639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD1523D-EBB3-0845-A262-51775024C394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9106776" y="8153838"/>
+          <a:ext cx="1435975" cy="403335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HDD 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>282466</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>10510</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4D3B51-E80E-BA42-817E-2F0E9C6C49CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9106776" y="8595273"/>
+          <a:ext cx="1435975" cy="403334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HDD 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>10510</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>23210</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28622B95-2224-2449-8DB1-36B36B97B2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9119476" y="9414642"/>
+          <a:ext cx="1435975" cy="403334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HDD (n)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17079</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19270</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B203287-24B9-5941-B5B5-0DE58E0ABB12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987424" y="8568998"/>
+          <a:ext cx="1140812" cy="1033297"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17079</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>199479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>21021</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BF81A8-E60B-1941-9DE8-D399F550747C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7987424" y="8344996"/>
+          <a:ext cx="1142563" cy="224002"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17079</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>31094</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>198602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D380C2-233E-9D41-97E2-7488A8D3E9F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987424" y="8568998"/>
+          <a:ext cx="1152636" cy="399173"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10071</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Elbow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5052672-1004-4648-A746-8D1DEDED03B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421148" y="2541752"/>
+          <a:ext cx="1135992" cy="6049143"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -927,11 +2777,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CE5C30-C89B-6046-AEA2-E3C4FEA34F1E}">
+  <dimension ref="F8:AM26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="6:39" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="X8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="11" spans="6:39" x14ac:dyDescent="0.2">
+      <c r="AM11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="6:39" x14ac:dyDescent="0.2">
+      <c r="AM12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="O8:S8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23E5E3-6637-B241-A3A6-FB16A95A50A2}">
   <dimension ref="D4:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView topLeftCell="A6" zoomScale="157" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,4 +3028,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46123D7F-0722-2B46-ABF8-1C1A7A5D661F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE508ED7-0027-904C-AD6E-4E634871890B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Dastruct - 2022-07-18.xlsx
+++ b/docs/Dastruct - 2022-07-18.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everett/Codes/Projects/Work/Workforce/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14283E0-2318-E141-B365-F1BF54EB6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D003C3-89B7-4442-A97B-A2B8E145FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="2480" windowWidth="30420" windowHeight="17680" activeTab="2" xr2:uid="{208C766E-858D-E64E-9905-BF5B2B6B0DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Infrastructure" sheetId="3" r:id="rId1"/>
     <sheet name="Authentication" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Customer Contact" sheetId="4" r:id="rId3"/>
     <sheet name="Configuration" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>App</t>
   </si>
@@ -128,6 +128,204 @@
   </si>
   <si>
     <t>Master files</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>text() = json</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>contact_type(website, landline, mobile, fax, email, etc...), value</t>
+  </si>
+  <si>
+    <t>ref_no</t>
+  </si>
+  <si>
+    <t>tb_wf_mf_entity</t>
+  </si>
+  <si>
+    <t>entity_id, …..</t>
+  </si>
+  <si>
+    <t>hospital, doctor, office, etc…</t>
+  </si>
+  <si>
+    <t>tb_wf_mf_entity_relationship</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>primary_entity_id</t>
+  </si>
+  <si>
+    <t>secondary_entity_id</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>(hospital, office)</t>
+  </si>
+  <si>
+    <t>(person, i.e. doctors, office staff, etc…)</t>
+  </si>
+  <si>
+    <t>tb_wf_mf_entity_type</t>
+  </si>
+  <si>
+    <t>entity_type_id:</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>primary / secondary</t>
+  </si>
+  <si>
+    <t>primary : hospital, office</t>
+  </si>
+  <si>
+    <t>secondary : person, i.e. docotors, office staff,</t>
+  </si>
+  <si>
+    <t>entity_relationship_ids</t>
+  </si>
+  <si>
+    <t>boss_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>fk, nullable</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Debie</t>
+  </si>
+  <si>
+    <t>tb_wf_mf_territory</t>
+  </si>
+  <si>
+    <t>Winterpine</t>
+  </si>
+  <si>
+    <t>Mags Department</t>
+  </si>
+  <si>
+    <t>Tint Department</t>
+  </si>
+  <si>
+    <t>Luzon</t>
+  </si>
+  <si>
+    <t>Vizayas</t>
+  </si>
+  <si>
+    <t>Mindanao</t>
+  </si>
+  <si>
+    <t>Metro Manila</t>
+  </si>
+  <si>
+    <t>North Luzon</t>
+  </si>
+  <si>
+    <t>South Luzon</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Manila, Kalookan</t>
+  </si>
+  <si>
+    <t>Pasig</t>
+  </si>
+  <si>
+    <t>&lt;---- Territory</t>
+  </si>
+  <si>
+    <t>(Business Unit, Area)</t>
+  </si>
+  <si>
+    <t>Tint, Luzon - MM, QC</t>
+  </si>
+  <si>
+    <t>Tint, Luzon - MM, Maynila, Kalook</t>
+  </si>
+  <si>
+    <t>Tint, Luzon - MM, Pasig</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>business_unit</t>
+  </si>
+  <si>
+    <t>varchar(100</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>tb_sys_mf_user_territory</t>
+  </si>
+  <si>
+    <t>territory_id</t>
+  </si>
+  <si>
+    <t>tb_wf_mf_entity_address</t>
+  </si>
+  <si>
+    <t>brgy</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>tb_wf_mf_entity_address_territory</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>entity_id</t>
+  </si>
+  <si>
+    <t>entity_address_id</t>
   </si>
 </sst>
 </file>
@@ -2862,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23E5E3-6637-B241-A3A6-FB16A95A50A2}">
-  <dimension ref="D4:AY25"/>
+  <dimension ref="D4:BE40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="157" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView topLeftCell="O1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2961,13 +3159,19 @@
     </row>
     <row r="12" spans="4:51" x14ac:dyDescent="0.2">
       <c r="AM12" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>57</v>
       </c>
       <c r="AY12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AM13" t="s">
+        <v>9</v>
+      </c>
       <c r="AY13" t="s">
         <v>17</v>
       </c>
@@ -2981,44 +3185,175 @@
       <c r="W15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AL15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="AM16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W17" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AM17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W18" s="4"/>
-    </row>
-    <row r="20" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AM18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AL20" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W21" s="7"/>
       <c r="X21" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AM21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W22" s="7"/>
       <c r="X22" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AN22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AO23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-    </row>
-    <row r="25" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="AP24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="23:57" x14ac:dyDescent="0.2">
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
+    </row>
+    <row r="28" spans="23:57" x14ac:dyDescent="0.2">
+      <c r="AO28" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="23:57" x14ac:dyDescent="0.2">
+      <c r="AP29" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="23:57" x14ac:dyDescent="0.2">
+      <c r="AP30" s="5"/>
+      <c r="AQ30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="23:57" x14ac:dyDescent="0.2">
+      <c r="AP31" s="5"/>
+      <c r="AR31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="23:57" x14ac:dyDescent="0.2">
+      <c r="AP32" s="5"/>
+      <c r="AS32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP33" s="5"/>
+      <c r="AS33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP34" s="5"/>
+      <c r="AS34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP35" s="5"/>
+      <c r="AR35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP36" s="5"/>
+      <c r="AR36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP37" s="5"/>
+      <c r="AQ37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP38" s="5"/>
+      <c r="AQ38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP39" s="5"/>
+    </row>
+    <row r="40" spans="42:57" x14ac:dyDescent="0.2">
+      <c r="AP40" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3032,14 +3367,291 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46123D7F-0722-2B46-ABF8-1C1A7A5D661F}">
-  <dimension ref="A1"/>
+  <dimension ref="E3:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E44" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E53" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
